--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_10_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_10_5.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_15</t>
+          <t>model_10_5_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.4287303638847675</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.516412539438412</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.725932782985891</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.015470302366398</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F2" t="n">
-        <v>1.581183433532715</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G2" t="n">
-        <v>6.887792587280273</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H2" t="n">
-        <v>3.188444375991821</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I2" t="n">
-        <v>5.146924018859863</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_14</t>
+          <t>model_10_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3950953408804401</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.466854814098863</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.186869754611513</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.854822631547656</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F3" t="n">
-        <v>1.543959498405457</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G3" t="n">
-        <v>6.825914859771729</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H3" t="n">
-        <v>2.965976238250732</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I3" t="n">
-        <v>5.009471416473389</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_24</t>
+          <t>model_10_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F4" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G4" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H4" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I4" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_22</t>
+          <t>model_10_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F5" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G5" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H5" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I5" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_21</t>
+          <t>model_10_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F6" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G6" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H6" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I6" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_20</t>
+          <t>model_10_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F7" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G7" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H7" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I7" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_19</t>
+          <t>model_10_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F8" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G8" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H8" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I8" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_18</t>
+          <t>model_10_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F9" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G9" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H9" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I9" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_17</t>
+          <t>model_10_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F10" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G10" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H10" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I10" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_23</t>
+          <t>model_10_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.394113329057715</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.004245644712321</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.733297092661383</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.940062678518625</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F11" t="n">
-        <v>1.542872548103333</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G11" t="n">
-        <v>7.49690055847168</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H11" t="n">
-        <v>2.366096019744873</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I11" t="n">
-        <v>5.082403659820557</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_16</t>
+          <t>model_10_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3941128449027722</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.004243154147507</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.733298984685766</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.940060553906809</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F12" t="n">
-        <v>1.542872190475464</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G12" t="n">
-        <v>7.496897220611572</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H12" t="n">
-        <v>2.36609673500061</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I12" t="n">
-        <v>5.082402229309082</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_5</t>
+          <t>model_10_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.3723436280763319</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.309589154077676</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.712300609995149</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.171646571097284</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F13" t="n">
-        <v>1.518779993057251</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G13" t="n">
-        <v>6.629552841186523</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H13" t="n">
-        <v>1.944737076759338</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I13" t="n">
-        <v>4.424935817718506</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_6</t>
+          <t>model_10_5_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.3720021848341641</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.377477214004192</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.950348223769794</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.278124897884613</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F14" t="n">
-        <v>1.518402099609375</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G14" t="n">
-        <v>6.71431827545166</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H14" t="n">
-        <v>2.042977809906006</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I14" t="n">
-        <v>4.516040325164795</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_13</t>
+          <t>model_10_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3546496881809167</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.367051601879008</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.678702942959367</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.662375804123495</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F15" t="n">
-        <v>1.499198079109192</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G15" t="n">
-        <v>6.701300144195557</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H15" t="n">
-        <v>2.756258964538574</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I15" t="n">
-        <v>4.844810962677002</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_12</t>
+          <t>model_10_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3352140810842694</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.381939903712785</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.15488704311609</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E16" t="n">
-        <v>-4.554982575456045</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F16" t="n">
-        <v>1.477688670158386</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G16" t="n">
-        <v>6.719890117645264</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H16" t="n">
-        <v>2.540083408355713</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75292444229126</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_7</t>
+          <t>model_10_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3187415652651848</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.334637397891785</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.95011681386331</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.24497425245371</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F17" t="n">
-        <v>1.459458231925964</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G17" t="n">
-        <v>6.660828113555908</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H17" t="n">
-        <v>2.042882442474365</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I17" t="n">
-        <v>4.48767614364624</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_4</t>
+          <t>model_10_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3148921513823117</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.906869960932322</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.259651157073002</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.757767244326424</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F18" t="n">
-        <v>1.455198049545288</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G18" t="n">
-        <v>6.126718044281006</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H18" t="n">
-        <v>1.757931470870972</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I18" t="n">
-        <v>4.070814609527588</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_11</t>
+          <t>model_10_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.3116487206368737</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.336801301725794</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.731471914869314</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.423998996229079</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F19" t="n">
-        <v>1.451608657836914</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G19" t="n">
-        <v>6.663530349731445</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H19" t="n">
-        <v>2.365342617034912</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I19" t="n">
-        <v>4.640852451324463</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_8</t>
+          <t>model_10_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3080226883072503</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.325722151194466</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.07182454037823</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.265714468320562</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F20" t="n">
-        <v>1.447595596313477</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G20" t="n">
-        <v>6.649696826934814</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H20" t="n">
-        <v>2.09311056137085</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I20" t="n">
-        <v>4.50542163848877</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_10</t>
+          <t>model_10_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.303751711064266</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C21" t="n">
-        <v>-4.3379332882529</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.416357658396175</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.353352767768865</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F21" t="n">
-        <v>1.442868947982788</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G21" t="n">
-        <v>6.664943695068359</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H21" t="n">
-        <v>2.235297203063965</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I21" t="n">
-        <v>4.580406188964844</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_9</t>
+          <t>model_10_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.3033535605202689</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C22" t="n">
-        <v>-4.33491788632099</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.213742957820223</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E22" t="n">
-        <v>-4.305030604533052</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F22" t="n">
-        <v>1.442428350448608</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G22" t="n">
-        <v>6.661178588867188</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H22" t="n">
-        <v>2.151679277420044</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I22" t="n">
-        <v>4.539061546325684</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_3</t>
+          <t>model_10_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02309708021602375</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.503613733626938</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.220875038269118</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.437867380015661</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F23" t="n">
-        <v>1.132266998291016</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G23" t="n">
-        <v>4.374612331390381</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H23" t="n">
-        <v>1.329235076904297</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I23" t="n">
-        <v>2.941489458084106</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_2</t>
+          <t>model_10_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09718524540789852</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.019653307915339</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.044852425810323</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.797039172783102</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9991498589515686</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G24" t="n">
-        <v>3.770339488983154</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H24" t="n">
-        <v>0.843897819519043</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I24" t="n">
-        <v>2.393187522888184</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_1</t>
+          <t>model_10_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2056495918274023</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.434520339941177</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.06353923774595538</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.122247965184075</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8791118264198303</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G25" t="n">
-        <v>3.039741992950439</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H25" t="n">
-        <v>0.438916027545929</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I25" t="n">
-        <v>1.815826296806335</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_0</t>
+          <t>model_10_5_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2625746847542779</v>
+        <v>0.6731329884640765</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.9926806329117521</v>
+        <v>0.4382949588972336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6565058353143409</v>
+        <v>0.8554970179463681</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.6174612747383657</v>
+        <v>0.5115830679343389</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8161125183105469</v>
+        <v>0.3617455065250397</v>
       </c>
       <c r="G26" t="n">
-        <v>2.48806095123291</v>
+        <v>0.7840085029602051</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1417579054832458</v>
+        <v>0.01952212303876877</v>
       </c>
       <c r="I26" t="n">
-        <v>1.383923530578613</v>
+        <v>0.4242500960826874</v>
       </c>
     </row>
   </sheetData>
